--- a/data/kode_wilayah.xlsx
+++ b/data/kode_wilayah.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fach 25\Survei\SBR\Streamlit\sebaran-usaha\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fach 25\Survei\SBR\Streamlit\sbr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0652F83A-0EA5-4082-941A-F856A2869B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56E8679-114C-4491-9ACB-A9B08C4B3A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2014,5 +2014,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>